--- a/DragPrediction/NL2VP DragX/1T/n/6/test.xlsx
+++ b/DragPrediction/NL2VP DragX/1T/n/6/test.xlsx
@@ -370,7 +370,7 @@
         <v>3</v>
       </c>
       <c r="E1">
-        <v>8.1675991735537194E-3</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -388,11 +388,11 @@
       </c>
       <c r="E2">
         <f>A2*$E$1</f>
-        <v>0.11220104599283058</v>
+        <v>0.28848403500000003</v>
       </c>
       <c r="F2">
         <f>SUM(E2:E200)</f>
-        <v>5.005387560339905</v>
+        <v>12.869527083000001</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -410,7 +410,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E61" si="0">A3*$E$1</f>
-        <v>0.5252935378740744</v>
+        <v>1.3506005940000001</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -428,7 +428,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0.11332422972838017</v>
+        <v>0.29137189200000002</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -446,7 +446,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.52845076417260739</v>
+        <v>1.358718249</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -464,7 +464,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.11457287595483472</v>
+        <v>0.29458233</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -482,7 +482,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.54372939372302476</v>
+        <v>1.398001668</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -500,7 +500,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.11732825637402894</v>
+        <v>0.30166678500000005</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -518,7 +518,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.4487557337730248</v>
+        <v>1.1538115680000001</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -536,7 +536,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.12010719214923966</v>
+        <v>0.30881180400000002</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -554,7 +554,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.27132062857776446</v>
+        <v>0.69760196100000005</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -572,7 +572,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>9.3388639319181815E-2</v>
+        <v>0.24011479799999999</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -590,7 +590,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0.19782183294480993</v>
+        <v>0.50862663600000002</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -608,7 +608,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>9.7193548064578514E-2</v>
+        <v>0.24989773200000001</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -626,7 +626,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>0.22210693127709918</v>
+        <v>0.57106690199999999</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -644,7 +644,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>0.10079618621644215</v>
+        <v>0.25916060099999999</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -662,7 +662,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>0.17903929518133885</v>
+        <v>0.46033419600000003</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,7 +680,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>0.11601552716445869</v>
+        <v>0.29829158100000003</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -698,7 +698,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>0.15598975858162811</v>
+        <v>0.40107072600000004</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -716,7 +716,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>0.11103531723318595</v>
+        <v>0.28548678900000002</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -734,7 +734,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>9.1852011713466949E-2</v>
+        <v>0.23616392100000003</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -752,7 +752,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>7.7085604977619848E-2</v>
+        <v>0.19819749600000003</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -770,7 +770,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>-3.1809417394933884E-2</v>
+        <v>-8.1786306000000003E-2</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -788,7 +788,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>8.0752015743830577E-2</v>
+        <v>0.20762433299999999</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -806,7 +806,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>-3.0153804204458678E-2</v>
+        <v>-7.7529501000000001E-2</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -824,7 +824,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>8.6316658233966947E-2</v>
+        <v>0.22193178000000002</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -842,7 +842,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>-3.8716404809243807E-2</v>
+        <v>-9.954510300000001E-2</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -860,7 +860,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>8.2634173632582644E-2</v>
+        <v>0.21246361499999999</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -878,7 +878,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>-0.12502594089673141</v>
+        <v>-0.32145857100000003</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -896,7 +896,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>7.6442945604247942E-2</v>
+        <v>0.19654513200000001</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -914,7 +914,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>-3.8231094233950415E-2</v>
+        <v>-9.8297304000000016E-2</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -932,7 +932,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>8.2014914430842981E-2</v>
+        <v>0.21087141600000003</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -950,7 +950,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>9.8627353764297529E-2</v>
+        <v>0.25358424000000002</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -968,7 +968,7 @@
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>8.3667040056471076E-2</v>
+        <v>0.21511925400000001</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -986,7 +986,7 @@
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>0.10159344190697107</v>
+        <v>0.26121045300000001</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>8.1894009460276862E-2</v>
+        <v>0.21056055300000001</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>0.11344561658729753</v>
+        <v>0.291683994</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>5.6467440137888437E-2</v>
+        <v>0.14518541100000001</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>0.10918033294688431</v>
+        <v>0.28071737400000002</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>6.4478017217330583E-2</v>
+        <v>0.16578168600000001</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>2.053352400949587E-2</v>
+        <v>5.2794462000000007E-2</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>7.9095838989012401E-2</v>
+        <v>0.20336607900000001</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>-2.2206403504623967E-2</v>
+        <v>-5.7095660999999999E-2</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>7.8025230089342978E-2</v>
+        <v>0.20061339900000003</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>-2.8275223724144628E-2</v>
+        <v>-7.2699417000000002E-2</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>7.4647576624314052E-2</v>
+        <v>0.19192899600000002</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>-3.4946322706723147E-2</v>
+        <v>-8.9851713000000014E-2</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>6.9211729005545466E-2</v>
+        <v>0.17795269800000002</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>-5.0167893409314046E-2</v>
+        <v>-0.12898842599999999</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>2.6837219878450412E-2</v>
+        <v>6.9002115000000003E-2</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>-0.10682842375926446</v>
+        <v>-0.27467029799999998</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
-        <v>4.8730012077607437E-2</v>
+        <v>0.125291439</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>-0.10585508279815289</v>
+        <v>-0.27216770700000004</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>4.4316535517789253E-2</v>
+        <v>0.113943795</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>-0.11262394794283885</v>
+        <v>-0.28957137300000002</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>2.9926026198706612E-2</v>
+        <v>7.6943853000000006E-2</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
-        <v>-0.11499870190534713</v>
+        <v>-0.29567718600000004</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>2.3437775258826447E-2</v>
+        <v>6.0261684000000003E-2</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
-        <v>-0.10445751673596694</v>
+        <v>-0.268574376</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1459,5 +1459,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>